--- a/data/trans_orig/IP40A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP40A-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67D0B04-9FFD-48D6-A654-F5B7B4CF7650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D1A8B78-60DB-444C-A235-910C201F0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D98A11E9-46BD-4380-B805-A6551CE27563}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1986AF9-6C13-497E-887C-429C23A0D9A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="665">
   <si>
     <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2012 (Tasa respuesta: 75,94%)</t>
   </si>
@@ -93,1942 +93,1945 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>De 2.500 a 2.999 euros</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>De 2.000 a 2.499 euros</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>De 1.500 a 1.999 euros</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>De 1.000 a 1.499 euros</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>De 500 a 999 euros</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>De 301 a 499 euros</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>Hasta 300 euros</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2016 (Tasa respuesta: 78,03%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>De 2.500 a 2.999 euros</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>De 2.000 a 2.499 euros</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>De 1.500 a 1.999 euros</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>De 1.000 a 1.499 euros</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>De 500 a 999 euros</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>De 301 a 499 euros</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>Hasta 300 euros</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2015 (Tasa respuesta: 78,03%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>3,18%</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFA07A8-FE16-4702-BC31-DED529A82625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD26BE-6F18-4488-B418-CD8C4F03E4D2}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2648,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -3112,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3130,13 @@
         <v>5281</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -3142,13 +3145,13 @@
         <v>6609</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -3157,13 +3160,13 @@
         <v>11890</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3181,13 @@
         <v>11172</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3193,13 +3196,13 @@
         <v>12534</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -3208,13 +3211,13 @@
         <v>23706</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3232,13 @@
         <v>22490</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3244,13 +3247,13 @@
         <v>17795</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3259,13 +3262,13 @@
         <v>40285</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3283,13 @@
         <v>34214</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -3295,13 +3298,13 @@
         <v>28700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3310,13 +3313,13 @@
         <v>62914</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3334,13 @@
         <v>76878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3346,13 +3349,13 @@
         <v>72065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -3361,13 +3364,13 @@
         <v>148943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3385,13 @@
         <v>40129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -3397,13 +3400,13 @@
         <v>41651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>115</v>
@@ -3412,13 +3415,13 @@
         <v>81780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3436,13 @@
         <v>7614</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3448,13 +3451,13 @@
         <v>5756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -3463,13 +3466,13 @@
         <v>13370</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3487,13 @@
         <v>1496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3499,13 +3502,13 @@
         <v>2316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3514,13 +3517,13 @@
         <v>3812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3579,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3594,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3603,13 +3606,13 @@
         <v>1089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3618,13 +3621,13 @@
         <v>1712</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3642,13 @@
         <v>3625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3654,13 +3657,13 @@
         <v>675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3669,13 +3672,13 @@
         <v>4301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3693,13 @@
         <v>3898</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3705,13 +3708,13 @@
         <v>6263</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -3720,13 +3723,13 @@
         <v>10161</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3744,13 @@
         <v>22180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3756,13 +3759,13 @@
         <v>9483</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>45</v>
@@ -3771,13 +3774,13 @@
         <v>31663</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3795,13 @@
         <v>18757</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -3807,13 +3810,13 @@
         <v>26845</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -3822,13 +3825,13 @@
         <v>45603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3846,13 @@
         <v>41889</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -3858,13 +3861,13 @@
         <v>50372</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -3873,13 +3876,13 @@
         <v>92260</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3897,13 @@
         <v>20879</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -3909,13 +3912,13 @@
         <v>23278</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -3924,13 +3927,13 @@
         <v>44157</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3948,13 @@
         <v>7309</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -3960,13 +3963,13 @@
         <v>5337</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -3975,13 +3978,13 @@
         <v>12646</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3999,13 @@
         <v>1857</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4026,13 +4029,13 @@
         <v>1857</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4091,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4100,13 +4103,13 @@
         <v>1319</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4115,13 +4118,13 @@
         <v>1427</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -4130,13 +4133,13 @@
         <v>2746</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4154,13 @@
         <v>4742</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4166,13 +4169,13 @@
         <v>1469</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -4181,13 +4184,13 @@
         <v>6211</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4205,13 @@
         <v>5656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -4217,13 +4220,13 @@
         <v>5089</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -4232,13 +4235,13 @@
         <v>10745</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4256,13 @@
         <v>10242</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -4268,13 +4271,13 @@
         <v>14062</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -4283,13 +4286,13 @@
         <v>24304</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4307,13 @@
         <v>34335</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>43</v>
@@ -4319,13 +4322,13 @@
         <v>30732</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>94</v>
@@ -4334,13 +4337,13 @@
         <v>65067</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4358,13 @@
         <v>52623</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H39" s="7">
         <v>64</v>
@@ -4370,13 +4373,13 @@
         <v>44707</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M39" s="7">
         <v>142</v>
@@ -4385,13 +4388,13 @@
         <v>97331</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4409,13 @@
         <v>19107</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H40" s="7">
         <v>37</v>
@@ -4421,13 +4424,13 @@
         <v>26406</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="M40" s="7">
         <v>66</v>
@@ -4436,13 +4439,13 @@
         <v>45512</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4460,13 @@
         <v>3846</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -4478,7 +4481,7 @@
         <v>21</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -4487,13 +4490,13 @@
         <v>6102</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4511,13 @@
         <v>767</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -4529,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -4538,13 +4541,13 @@
         <v>767</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>80</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4615,13 @@
         <v>2571</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -4627,13 +4630,13 @@
         <v>3411</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -4642,13 +4645,13 @@
         <v>5982</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4666,13 @@
         <v>15542</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H45" s="7">
         <v>16</v>
@@ -4678,13 +4681,13 @@
         <v>10637</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M45" s="7">
         <v>38</v>
@@ -4693,13 +4696,13 @@
         <v>26179</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4717,13 @@
         <v>24745</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H46" s="7">
         <v>38</v>
@@ -4729,13 +4732,13 @@
         <v>26754</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M46" s="7">
         <v>75</v>
@@ -4744,13 +4747,13 @@
         <v>51499</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4768,13 @@
         <v>66655</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>75</v>
@@ -4780,13 +4783,13 @@
         <v>52349</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>171</v>
@@ -4795,13 +4798,13 @@
         <v>119004</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4819,13 @@
         <v>112436</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H48" s="7">
         <v>158</v>
@@ -4831,13 +4834,13 @@
         <v>110922</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M48" s="7">
         <v>323</v>
@@ -4846,13 +4849,13 @@
         <v>223358</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4870,13 @@
         <v>203749</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H49" s="7">
         <v>314</v>
@@ -4882,13 +4885,13 @@
         <v>217895</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M49" s="7">
         <v>605</v>
@@ -4897,13 +4900,13 @@
         <v>421644</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4921,13 @@
         <v>104155</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H50" s="7">
         <v>159</v>
@@ -4933,13 +4936,13 @@
         <v>111284</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M50" s="7">
         <v>305</v>
@@ -4948,13 +4951,13 @@
         <v>215439</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4972,13 @@
         <v>24700</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>366</v>
+        <v>104</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -4984,13 +4987,13 @@
         <v>17146</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M51" s="7">
         <v>57</v>
@@ -4999,13 +5002,13 @@
         <v>41846</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5023,13 @@
         <v>4748</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>165</v>
+        <v>367</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -5035,13 +5038,13 @@
         <v>3706</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>95</v>
+        <v>370</v>
       </c>
       <c r="M52" s="7">
         <v>12</v>
@@ -5050,13 +5053,13 @@
         <v>8454</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>98</v>
+        <v>371</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5115,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5132,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967CEDE-B9D7-4DB3-B895-EA92E5CDF426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6309BE6B-D128-4AF7-8714-DD10093DE4C3}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5149,7 +5152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5262,7 +5265,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5277,7 +5280,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5292,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5310,13 @@
         <v>3427</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5322,13 +5325,13 @@
         <v>759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5337,13 +5340,13 @@
         <v>4187</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5361,13 @@
         <v>5998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -5373,13 +5376,13 @@
         <v>2999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>391</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -5388,13 +5391,13 @@
         <v>8996</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5412,13 @@
         <v>10571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5424,13 +5427,13 @@
         <v>11212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5439,13 +5442,13 @@
         <v>21783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5463,13 @@
         <v>18610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -5475,13 +5478,13 @@
         <v>13941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -5490,13 +5493,13 @@
         <v>32550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5514,13 @@
         <v>28966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>53</v>
@@ -5526,13 +5529,13 @@
         <v>33796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -5541,13 +5544,13 @@
         <v>62763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5565,13 @@
         <v>26032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5577,13 +5580,13 @@
         <v>27383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -5592,13 +5595,13 @@
         <v>53415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5616,13 @@
         <v>3924</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -5628,13 +5631,13 @@
         <v>8028</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>432</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -5643,13 +5646,13 @@
         <v>11952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5667,13 @@
         <v>2770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>438</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5679,13 +5682,13 @@
         <v>659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5694,13 +5697,13 @@
         <v>3429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5783,13 +5786,13 @@
         <v>753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5798,13 +5801,13 @@
         <v>753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5822,13 @@
         <v>3211</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>446</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -5834,13 +5837,13 @@
         <v>4454</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -5849,13 +5852,13 @@
         <v>7665</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>86</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5873,13 @@
         <v>7667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5885,13 +5888,13 @@
         <v>8918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5900,13 +5903,13 @@
         <v>16585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5924,13 @@
         <v>18686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5936,13 +5939,13 @@
         <v>10620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -5951,13 +5954,13 @@
         <v>29305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5975,13 @@
         <v>36879</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5987,13 +5990,13 @@
         <v>27181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>201</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -6002,13 +6005,13 @@
         <v>64060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6026,13 @@
         <v>67642</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -6038,13 +6041,13 @@
         <v>55818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>187</v>
@@ -6053,13 +6056,13 @@
         <v>123460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6077,13 @@
         <v>53159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -6089,13 +6092,13 @@
         <v>38271</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -6104,13 +6107,13 @@
         <v>91430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6128,13 @@
         <v>16321</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6140,13 +6143,13 @@
         <v>9473</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>497</v>
+        <v>155</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>435</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -6155,13 +6158,13 @@
         <v>25794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6179,13 @@
         <v>2578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>503</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6191,13 +6194,13 @@
         <v>4308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -6206,13 +6209,13 @@
         <v>6886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,7 +6271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6280,13 +6283,13 @@
         <v>759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>301</v>
+        <v>495</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6295,13 +6298,13 @@
         <v>640</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6310,13 +6313,13 @@
         <v>1399</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6334,13 @@
         <v>3007</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>512</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>513</v>
+        <v>302</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6346,13 +6349,13 @@
         <v>1944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>382</v>
+        <v>500</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6361,13 +6364,13 @@
         <v>4951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>517</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6385,13 @@
         <v>6423</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6397,13 +6400,13 @@
         <v>5291</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>519</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>373</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -6412,13 +6415,13 @@
         <v>11714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6436,13 @@
         <v>14953</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>522</v>
+        <v>320</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -6448,13 +6451,13 @@
         <v>13435</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>525</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M27" s="7">
         <v>40</v>
@@ -6463,13 +6466,13 @@
         <v>28388</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>528</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6487,13 @@
         <v>24723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>517</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6499,13 +6502,13 @@
         <v>28712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -6514,13 +6517,13 @@
         <v>53435</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6538,13 @@
         <v>51372</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -6550,13 +6553,13 @@
         <v>39692</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>128</v>
@@ -6565,13 +6568,13 @@
         <v>91064</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6589,13 @@
         <v>35180</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -6601,13 +6604,13 @@
         <v>43742</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="M30" s="7">
         <v>112</v>
@@ -6616,13 +6619,13 @@
         <v>78922</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6640,13 @@
         <v>9962</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>394</v>
+        <v>543</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -6652,13 +6655,13 @@
         <v>13668</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>555</v>
+        <v>155</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -6667,13 +6670,13 @@
         <v>23630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>557</v>
+        <v>395</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6691,13 @@
         <v>2070</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>154</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -6703,13 +6706,13 @@
         <v>4004</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>562</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>454</v>
+        <v>550</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6718,13 +6721,13 @@
         <v>6073</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>512</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>564</v>
+        <v>89</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6783,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6798,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6807,13 +6810,13 @@
         <v>644</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6822,13 +6825,13 @@
         <v>644</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6846,13 @@
         <v>2231</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -6858,13 +6861,13 @@
         <v>1255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>298</v>
+        <v>555</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>556</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -6873,13 +6876,13 @@
         <v>3486</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>376</v>
+        <v>557</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>569</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6897,13 @@
         <v>5161</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>311</v>
+        <v>559</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6915,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>116</v>
+        <v>561</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -6924,13 +6927,13 @@
         <v>6725</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6948,13 @@
         <v>12957</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -6960,13 +6963,13 @@
         <v>15468</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>566</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -6975,13 +6978,13 @@
         <v>28425</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6999,13 @@
         <v>28090</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>574</v>
       </c>
       <c r="H38" s="7">
         <v>31</v>
@@ -7011,13 +7014,13 @@
         <v>21619</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>584</v>
+        <v>66</v>
       </c>
       <c r="M38" s="7">
         <v>68</v>
@@ -7026,13 +7029,13 @@
         <v>49709</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7050,13 @@
         <v>37945</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>296</v>
+        <v>579</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H39" s="7">
         <v>65</v>
@@ -7062,13 +7065,13 @@
         <v>46366</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M39" s="7">
         <v>117</v>
@@ -7077,13 +7080,13 @@
         <v>84310</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7101,13 @@
         <v>37395</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -7113,13 +7116,13 @@
         <v>38140</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>598</v>
+        <v>206</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M40" s="7">
         <v>107</v>
@@ -7128,13 +7131,13 @@
         <v>75535</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>477</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7152,13 @@
         <v>13288</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -7164,13 +7167,13 @@
         <v>3095</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>604</v>
+        <v>168</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>109</v>
+        <v>599</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -7179,13 +7182,13 @@
         <v>16383</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7209,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -7215,13 +7218,13 @@
         <v>1711</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -7230,13 +7233,13 @@
         <v>1711</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>610</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7307,13 @@
         <v>759</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -7319,13 +7322,13 @@
         <v>2038</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>168</v>
+        <v>607</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>612</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>613</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -7334,13 +7337,13 @@
         <v>2797</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>375</v>
+        <v>608</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7358,13 @@
         <v>11876</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>505</v>
+        <v>161</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>616</v>
+        <v>109</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -7370,13 +7373,13 @@
         <v>8413</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>239</v>
+        <v>612</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M45" s="7">
         <v>30</v>
@@ -7388,10 +7391,10 @@
         <v>17</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>29</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7409,13 @@
         <v>25249</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>235</v>
+        <v>616</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H46" s="7">
         <v>28</v>
@@ -7421,13 +7424,13 @@
         <v>18772</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>447</v>
+        <v>618</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>301</v>
+        <v>619</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>620</v>
+        <v>107</v>
       </c>
       <c r="M46" s="7">
         <v>64</v>
@@ -7436,13 +7439,13 @@
         <v>44020</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7475,13 @@
         <v>50734</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="M47" s="7">
         <v>156</v>
@@ -7487,13 +7490,13 @@
         <v>107902</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>629</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7511,13 @@
         <v>108301</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="H48" s="7">
         <v>141</v>
@@ -7523,13 +7526,13 @@
         <v>91453</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="M48" s="7">
         <v>295</v>
@@ -7538,10 +7541,10 @@
         <v>199754</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>637</v>
@@ -7613,10 +7616,10 @@
         <v>647</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H50" s="7">
         <v>221</v>
@@ -7625,13 +7628,13 @@
         <v>147537</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M50" s="7">
         <v>436</v>
@@ -7640,10 +7643,10 @@
         <v>299302</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>653</v>
+        <v>269</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>654</v>
@@ -7664,10 +7667,10 @@
         <v>655</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="H51" s="7">
         <v>54</v>
@@ -7676,13 +7679,13 @@
         <v>34264</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>262</v>
+        <v>657</v>
       </c>
       <c r="K51" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="M51" s="7">
         <v>115</v>
@@ -7691,13 +7694,13 @@
         <v>77758</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="P51" s="7" t="s">
-        <v>661</v>
-      </c>
       <c r="Q51" s="7" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7715,13 @@
         <v>7418</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>30</v>
+        <v>661</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>97</v>
+        <v>662</v>
       </c>
       <c r="H52" s="7">
         <v>18</v>
@@ -7727,13 +7730,13 @@
         <v>10681</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>452</v>
+        <v>663</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M52" s="7">
         <v>29</v>
@@ -7742,13 +7745,13 @@
         <v>18099</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>311</v>
+        <v>559</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,7 +7807,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
